--- a/data/planilha_unica.xlsx
+++ b/data/planilha_unica.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,39 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" t="n">
+        <v>69</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100.464</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01202698738633012</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.041358293426208</v>
+      </c>
+      <c r="G11" t="n">
+        <v>68.29714285714286</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>97.044</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
